--- a/data/finance_kpi.xlsx
+++ b/data/finance_kpi.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryce\finance_kpi_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3243217-D48C-465F-9125-8CEDB711B074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36748CAD-4D62-44C0-A479-AD1DA896FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="17496" activeTab="1" xr2:uid="{35CC9701-6765-4257-8131-736029C2465C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="17496" xr2:uid="{35CC9701-6765-4257-8131-736029C2465C}"/>
   </bookViews>
   <sheets>
     <sheet name="Actuals" sheetId="1" r:id="rId1"/>
@@ -462,17 +462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE24005-6182-435F-A865-20B87511C4D1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -543,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>120000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -641,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>120000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -739,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>120000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>120000</v>
+        <v>133000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,9 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538E48CE-EE7C-413F-A8C6-305F978BD051}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
